--- a/1 esperienza di laboratorio/curva voltammetrica/prova1.xlsx
+++ b/1 esperienza di laboratorio/curva voltammetrica/prova1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\1 esperienza di laboratorio\curva voltammetrica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442F8627-EA78-4D02-BBF7-5174CA6782D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF1DAC-7003-477E-A5C8-D525C51F9B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{934D8033-4E35-4E84-87F2-01862E2FB994}"/>
   </bookViews>
